--- a/experimentos/parte_1_experimentos/final/resultados_ollama_llama3_3_70b_self_hint.xlsx
+++ b/experimentos/parte_1_experimentos/final/resultados_ollama_llama3_3_70b_self_hint.xlsx
@@ -530,19 +530,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>CAT1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>The incident involves unauthorized attempts to access user and administrator accounts through SSH brute force attacks, aligning with the definition of Account Compromise.</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -616,14 +616,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This incident is classified as CAT1: Account Compromise because it involves repeated attempts to gain unauthorized access to user or administrator accounts through SSH brute force, as indicated by multiple failed login attempts with different usernames within a short time frame. The use of automated processes, suggested by the involvement of Fail2Ban, aims at guessing correct credentials, aligning with examples given for CAT1 such as credential phishing and SSH brute force. The primary goal of the attack is to compromise accounts, making CAT1 the most appropriate classification despite the lack of confirmation on a successful breach.</t>
+          <t>The incident involves unauthorized access attempts to user accounts via SSH brute force, which directly aligns with the definition of CAT1: Account Compromise. This categorization is justified by the clear evidence of repeated failed login attempts using different usernames, indicating an automated process aimed at guessing valid credentials to gain unauthorized access to user or administrator accounts.</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -683,19 +683,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>CAT7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>The incident is categorized under CAT7 (Social Engineering) because it involves attempts to send emails that were rejected due to filter triggers, suggesting potential phishing or spam activity aimed at deceiving recipients. This aligns with social engineering tactics, which encompass a broad range of deceptive practices, including phishing, aimed at manipulating or deceiving targets through digital means.</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -767,14 +767,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The incident involves unauthorized attempts to access user accounts through SSH brute force, as evidenced by repeated login attempts with different usernames and passwords from a single IP address, aligning with the definition of an account compromise attempt.</t>
+          <t>The incident involves multiple failed SSH login attempts with different usernames from a single IP address, indicating a brute-force attack aimed at guessing passwords for non-existent or existing users. This directly aligns with the definition of CAT1 (Account Compromise), which includes unauthorized access to user or administrator accounts and specifically mentions SSH brute force as an example. The evidence provided shows a clear attempt to compromise account security through repeated login attempts, making CAT1 the most appropriate classification.</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -855,7 +855,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The incident is categorized as CAT2 (Malware) because it involves infection by malicious code, specifically the SystemBC malware, which is a backdoor used for unauthorized access and potential distribution of further malware or ransomware. This aligns with the definition of CAT2, including examples like ransomware and Trojan horses. The recommended actions to mitigate the issue, such as disconnecting infected computers and reinstalling software, also support this categorization.</t>
+          <t>The incident is primarily about the infection of one or more computers with the SystemBC malware, which is a backdoor that can facilitate further malicious activities within the network. The recommended actions to mitigate its impact, such as disconnecting infected machines and reinstalling software, align closely with the definition of CAT2: Malware – infection by malicious code.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The incident revolves around a notification about a potential infection by malicious code, specifically the SystemBC malware, which is known to act as a backdoor and facilitate further malicious activities such as ransomware attacks. The focus on infection and the recommended remediation steps directly relate to addressing and mitigating the effects of malware, making CAT2 (Malware) the most directly applicable category.</t>
+          <t>The incident is primarily about the infection of computers with SystemBC malware, which is a backdoor used for lateral movement and has been associated with ransomware attacks. This aligns closely with the definition of CAT2: Malware, involving infection by malicious code that can lead to unauthorized control or data compromise.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The incident involves detected and blocked attempts by an IP address to engage in potentially malicious activities on a mail server, fitting the definition of unconfirmed attacks or probes, which aligns with the Intrusion Attempt category. There's no clear evidence of successful unauthorized access, malware infection, denial-of-service, data leak, vulnerability exploitation, insider abuse, social engineering, physical incident, unauthorized modification, misuse of resources, or third-party issues, making CAT12 the most appropriate classification.</t>
+          <t>The incident is classified as an intrusion attempt due to the repeated connection attempts and email sending efforts from a specific IP address that were blocked by the recipient's server. This behavior aligns with the concept of an unconfirmed attack, where there are efforts to access or use a system in ways that are not authorized, even if those attempts are unsuccessful. The focus on reporting these attempts as abuse and the preventive measures taken further supports this categorization.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CAT12</t>
+          <t>CAT10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The incident description provided indicates an attempt of unauthorized access or malicious activity from a specific IP address towards another network or system, as reported by CERT.br and the original sender. This aligns with CAT12: Intrusion Attempt due to the detection of abuse, log lines showing attempts at connecting and sending emails, no clear indication of success, and a request for investigation without evidence of a successful breach or attack.</t>
+          <t>This incident is categorized as CAT10 - Misuse of Resources because it involves the unauthorized use of network resources (an IP address associated with a Brazilian network) for potentially malicious purposes, such as spamming or phishing. The log lines provided indicate attempted email sending activities that were rejected or filtered out, suggesting a misuse of resources for sending unsolicited emails or attempting to bypass email filters, which aligns with the examples provided under CAT10.</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The incident involves a potential account compromise through brute force attacks against SSH, indicating an attempt to gain unauthorized access to accounts. This aligns with the definition of CAT1: Account Compromise, which includes examples such as credential phishing, SSH brute force, and OAuth token theft, making it the most appropriate category for this incident.</t>
+          <t>The incident description suggests potential unauthorized access or misuse of network resources, possibly through compromised credentials or brute-force attacks, which aligns with the definition of Account Compromise. The logs provided and the request for investigation from CERT.br further support this categorization, indicating a need to review account security and potential vulnerabilities to unauthorized access.</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The incident description clearly outlines a DDoS attack originating from a compromised host, which aligns with the definition of a Denial of Service Attack. This type of attack aims to make systems or networks unavailable by overwhelming them with traffic, which matches the details provided about the attack causing significant packet loss and necessitating an emergency null-route operation for mitigation. The focus on the DDoS aspect of the incident makes CAT3 the most relevant category.</t>
+          <t>The incident is classified as a Denial of Service Attack (CAT3) because it involves a coordinated DDoS botnet attack that made systems unavailable due to significant packet loss and external link saturation, necessitating an emergency null-route operation for mitigation. This aligns with the definition of CAT3, which includes volumetric DoS or DDoS attacks. While other categories like vulnerability exploitation (CAT5) or misuse of resources (CAT10) might be relevant to the root causes of the compromised hosts, the primary impact described fits squarely within CAT3, focusing on the outcome and nature of the attack.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The incident is categorized as a Denial of Service Attack (CAT3) because it involves a coordinated DDoS botnet attack that made a system unavailable by overwhelming it with traffic, resulting in significant packet loss and requiring emergency mitigation. This directly aligns with the definition of CAT3, which includes volumetric DoS or DDoS attacks aimed at making systems unavailable. While potential causes like compromised devices or servers could fit other categories, the primary incident described is the DDoS attack itself, making CAT3 the most appropriate classification.</t>
+          <t>The incident is classified as a Denial of Service Attack (CAT3) because it involves a coordinated DDoS botnet attack that made a system unavailable by overwhelming it with traffic. The primary impact described is the significant packet loss and the necessity for an emergency null-route operation to mitigate the attack, which aligns perfectly with the definition of a Denial of Service Attack. Although the incident touches on potential vulnerabilities or compromised devices, the primary action and impact are directly related to making a system unavailable through a DDoS attack.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1371,12 +1371,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>CAT3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>The incident is classified as a Denial of Service Attack (CAT3) because it involves a coordinated DDoS botnet attack that aimed to saturate external links and cause packet loss for clients, making systems unavailable. This directly aligns with the definition of volumetric DoS or DDoS attacks included in CAT3. While the root cause might involve other categories like vulnerability exploitation (CAT5) or account compromise (CAT1), the primary impact described is a Denial of Service Attack.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The incident is categorized under CAT5 (Vulnerability Exploitation) because it involves the exploitation of a known technical flaw (CVE-2022-37042 in Zimbra Collaboration Suite) for malicious purposes. The exploit allows attackers to execute remote code without authentication, which aligns with examples provided for CAT5, such as exploitation of critical CVEs and remote code execution (RCE). This category is the most appropriate because the core issue revolves around the exploitation of a software vulnerability, which is a direct characteristic of CAT5 incidents.</t>
+          <t>This incident is categorized as CAT5 - Vulnerability Exploitation because it involves a specific vulnerability (CVE-2022-37042) in the Zimbra Collaboration Suite software that could be exploited by attackers, potentially leading to remote code execution and unauthorized access to sensitive data. The notification from CERT.br focuses on alerting potential victims about this vulnerability and encourages them to take corrective actions to mitigate the risk of exploitation, which aligns with the definition of CAT5.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The incident involves the exposure of BGP (Border Gateway Protocol) services on certain IP addresses to the Internet. This exposure could lead to Denial of Service (DoS) attacks against the BGP service of the affected network, potentially disrupting its availability. The core issue here is not that an attack has occurred but rather that a vulnerability exists due to the improper configuration of BGP services, making them accessible to unauthorized parties.</t>
+          <t>The incident revolves around the exposure of BGP (Border Gateway Protocol) services to the internet. This situation creates a vulnerability where an attacker could potentially exploit the exposed service to launch denial-of-service attacks or manipulate routing information, which could significantly impact network availability and integrity.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The incident description aligns with the definition of an intrusion attempt, focusing on reported unwanted activities such as port scanning, malware attempts, and intrusion attempts towards a server. The primary details provided indicate blocked connection attempts and potential malicious activity without confirming successful infections, data breaches, or other types of attacks that would fit into different categories. This justification is based on analyzing the key elements of the incident, including the source and nature of the activities, which point towards unconfirmed attacks like network scans and brute force attempts, making CAT12 the most appropriate categorization.</t>
+          <t>The incident is classified as an intrusion attempt due to the reported IP address engaging in port scanning and attempting to exploit potential vulnerabilities on servers without evidence of a successful breach or compromise. This aligns with the definition of CAT12, which includes unconfirmed attacks such as network scans and blocked exploits.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1765,14 +1765,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The incident description provided falls under the category of CAT5: Vulnerability Exploitation. This categorization is based on the explanation that the service SSDP/uPnP (1900/udp) being enabled and accessible over the internet poses a vulnerability that can be exploited for Distributed Denial-of-Service (DDoS) attacks. The key points supporting this classification include:</t>
+          <t>The incident involves the exploitation of a technical flaw (improperly configured SSDP/UPnP service) for malicious purposes (DDoS attacks), which aligns with CAT5: Vulnerability Exploitation.</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The incident described involves a security alert regarding misconfigured NTP (Network Time Protocol) servers that are vulnerable to being exploited in distributed denial-of-service (DDoS) attacks. This situation falls under the category of Vulnerability Exploitation, which is classified as CAT5 according to the provided NIST categories.</t>
+          <t>The incident description provided involves a notification from CERT.br regarding misconfigured NTP (Network Time Protocol) servers that are vulnerable to being exploited for distributed denial-of-service (DDoS) attacks. These servers, due to their configuration, can accept certain commands like "monlist" or "readvar," which allow them to generate large responses to small queries, making them ideal targets for amplification attacks in DDoS scenarios.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The incident is categorized under CAT7: Social Engineering because it involves a phishing scam, which is a classic example of social engineering aimed at deceiving users into revealing sensitive information. The key elements of the incident, including the report of a phishing scam originating from a specific IP address and the request for investigation and action, align with the definition of social engineering attacks that rely on deception rather than exploiting technical vulnerabilities.</t>
+          <t>The incident is classified under CAT7: Social Engineering because it involves a phishing scam, which is a form of deception aimed at gaining access to sensitive information or manipulating individuals into performing certain actions. The report details an email attempting to inform and potentially mitigate such a scam, aligning with the definition of social engineering tactics.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -2028,14 +2028,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The incident involves the unauthorized use of an email server to send fraudulent emails aiming to extort users, directly falling under the misuse of resources as the server is being used for malicious purposes not intended by its legitimate owners or operators.</t>
+          <t>The incident involves a server being used to send fraudulent emails as part of an extortion attempt, which is an unauthorized and malicious use of resources. This aligns with the definition of CAT10, which includes incidents where systems or services are used for purposes they were not intended for, such as cryptocurrency mining or distributing malware and fraudulent content. The key aspect here is the misuse of the server for activities it was not intended for, specifically for distributing fraudulent content, making CAT10 the most appropriate category for this incident.</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The incident description clearly indicates that a website had its content altered, which is a direct example of unauthorized modification. This aligns with the definition of CAT9, which includes defacement and record manipulation as examples of improper changes to systems or data without authorization. The request for investigation and action by CERT.br further emphasizes the security implications of this incident, making CAT9 the most appropriate categorization.</t>
+          <t>The incident involves an unauthorized modification of a website's content, as indicated by the CERT.br notification. This matches the NIST category for improper changes to systems or data without authorization, such as defacement or record manipulation.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>The incident description explicitly mentions that a website had its content altered ("Desfiguracao de website"), which aligns with "defacement" or unauthorized modification of a system's content, directly corresponding to CAT9: Unauthorized Modification. This classification is chosen because it directly addresses the nature of the incident (website defacement) without assuming additional details not provided in the description.</t>
+          <t>The incident is categorized as CAT9 - Unauthorized Modification because it involves an unauthorized alteration of a website's content, which aligns with the definition of defacement. This type of incident falls under improper changes to systems or data, as indicated by the report from CERT.br and their request for investigation and action due to the unauthorized modification of the website.</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -2183,14 +2183,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The incident involves a website defacement where the content was altered without authorization. This aligns perfectly with the definition of CAT9: Unauthorized Modification, which includes examples such as defacement and record manipulation. The focus on unauthorized changes to the website's content makes CAT9 the most appropriate category for this incident.</t>
+          <t>The incident description indicates a website defacement, which is an unauthorized modification of a system or data. This classification is based on the notification of the website's content alteration and the request for investigation and action, fitting the criteria for CAT9 - Unauthorized Modification.</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The incident description explicitly mentions "Desfiguracao de website," which translates to website defacement, indicating an intentional and unauthorized change to a website's content. This aligns with the definition of CAT9: Unauthorized Modification, which includes improper changes to systems or data, such as defacement and record manipulation. Therefore, CAT9 is the most appropriate categorization for this incident.</t>
+          <t>This incident is classified under CAT9 - Unauthorized Modification because it involves the defacement of a website, which is a direct example of unauthorized modification of system content. The notification from CERT.br explicitly mentions "Desfiguracao de website," translating to "website defacement," and notes that the altered content remains accessible. This aligns with the definition of CAT9, which includes defacement as an example of unauthorized modification, making it the most appropriate category for this incident.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The incident clearly involves unauthorized modification of a website's content, as evident from the description provided by CERT.br. This includes specific examples of changes made, such as the inclusion of an IFRAME tag, a message claiming responsibility for the hack, and the display of images along with taunting messages. The hackers' claim of responsibility and their signatures further support this notion. CAT9 - Unauthorized Modification directly addresses incidents where improper changes are made to systems or data without authorization, making it the most appropriate category for this type of security incident, specifically website defacement.</t>
+          <t>The incident involves a website having its content altered without permission, including defacement with unauthorized text and images, which aligns with the definition of Unauthorized Modification. This category is the most suitable because it directly addresses the improper changes made to the system (the website), making it a clear case of CAT9: Unauthorized Modification.</t>
         </is>
       </c>
       <c r="E25" t="n">
